--- a/画面設計書_3_1_ユーザー登録画面.xlsx
+++ b/画面設計書_3_1_ユーザー登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\研修\01_設計\ドキュメントフォーマット\設計書サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5866982-FD51-465C-A3B3-F9368AD6D800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A824B05C-CA45-4454-9846-B9EFAC120884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="1992" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)レイアウト" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>システム名</t>
   </si>
@@ -156,14 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字列</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リンク</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>コンテンツ部</t>
   </si>
   <si>
@@ -188,14 +180,6 @@
   <si>
     <t>テキストボックス</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ボタン</t>
@@ -231,10 +215,6 @@
   <si>
     <t>－</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>未入力エラー時は背景色が赤くなる</t>
@@ -2349,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP1" sqref="BP1:BW1"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5:AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2372,7 +2352,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
@@ -2438,7 +2418,7 @@
       <c r="BN1" s="32"/>
       <c r="BO1" s="32"/>
       <c r="BP1" s="33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="BQ1" s="33"/>
       <c r="BR1" s="33"/>
@@ -3410,7 +3390,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -4628,7 +4608,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -4650,7 +4630,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
@@ -4672,7 +4652,7 @@
       <c r="AQ5" s="19"/>
       <c r="AR5" s="19"/>
       <c r="AS5" s="20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AT5" s="20"/>
       <c r="AU5" s="20"/>
@@ -6957,8 +6937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:X10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6980,7 +6960,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
@@ -7046,7 +7026,7 @@
       <c r="BN1" s="32"/>
       <c r="BO1" s="32"/>
       <c r="BP1" s="33" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="BQ1" s="33"/>
       <c r="BR1" s="33"/>
@@ -8018,7 +7998,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
@@ -9236,7 +9216,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -9258,7 +9238,7 @@
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
@@ -9280,7 +9260,7 @@
       <c r="AQ5" s="19"/>
       <c r="AR5" s="19"/>
       <c r="AS5" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AT5" s="20"/>
       <c r="AU5" s="20"/>
@@ -9619,9 +9599,7 @@
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="89"/>
-      <c r="E9" s="107" t="s">
-        <v>59</v>
-      </c>
+      <c r="E9" s="107"/>
       <c r="F9" s="108"/>
       <c r="G9" s="108"/>
       <c r="H9" s="108"/>
@@ -9641,27 +9619,19 @@
       <c r="V9" s="108"/>
       <c r="W9" s="108"/>
       <c r="X9" s="109"/>
-      <c r="Y9" s="90" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y9" s="90"/>
       <c r="Z9" s="91"/>
       <c r="AA9" s="92"/>
-      <c r="AB9" s="107" t="s">
-        <v>24</v>
-      </c>
+      <c r="AB9" s="107"/>
       <c r="AC9" s="108"/>
       <c r="AD9" s="108"/>
       <c r="AE9" s="108"/>
       <c r="AF9" s="108"/>
       <c r="AG9" s="109"/>
-      <c r="AH9" s="90" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH9" s="90"/>
       <c r="AI9" s="91"/>
       <c r="AJ9" s="92"/>
-      <c r="AK9" s="81" t="s">
-        <v>25</v>
-      </c>
+      <c r="AK9" s="81"/>
       <c r="AL9" s="82"/>
       <c r="AM9" s="82"/>
       <c r="AN9" s="82"/>
@@ -9671,9 +9641,7 @@
       <c r="AR9" s="64"/>
       <c r="AS9" s="64"/>
       <c r="AT9" s="65"/>
-      <c r="AU9" s="93" t="s">
-        <v>23</v>
-      </c>
+      <c r="AU9" s="93"/>
       <c r="AV9" s="93"/>
       <c r="AW9" s="93"/>
       <c r="AX9" s="93"/>
@@ -9744,27 +9712,19 @@
       <c r="V10" s="108"/>
       <c r="W10" s="108"/>
       <c r="X10" s="109"/>
-      <c r="Y10" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="Y10" s="110"/>
       <c r="Z10" s="111"/>
       <c r="AA10" s="112"/>
-      <c r="AB10" s="107" t="s">
-        <v>27</v>
-      </c>
+      <c r="AB10" s="107"/>
       <c r="AC10" s="108"/>
       <c r="AD10" s="108"/>
       <c r="AE10" s="108"/>
       <c r="AF10" s="108"/>
       <c r="AG10" s="109"/>
-      <c r="AH10" s="110" t="s">
-        <v>23</v>
-      </c>
+      <c r="AH10" s="110"/>
       <c r="AI10" s="111"/>
       <c r="AJ10" s="112"/>
-      <c r="AK10" s="107" t="s">
-        <v>28</v>
-      </c>
+      <c r="AK10" s="107"/>
       <c r="AL10" s="108"/>
       <c r="AM10" s="108"/>
       <c r="AN10" s="108"/>
@@ -9774,9 +9734,7 @@
       <c r="AR10" s="64"/>
       <c r="AS10" s="64"/>
       <c r="AT10" s="65"/>
-      <c r="AU10" s="105" t="s">
-        <v>23</v>
-      </c>
+      <c r="AU10" s="105"/>
       <c r="AV10" s="105"/>
       <c r="AW10" s="105"/>
       <c r="AX10" s="105"/>
@@ -9786,9 +9744,7 @@
       <c r="BB10" s="105"/>
       <c r="BC10" s="105"/>
       <c r="BD10" s="105"/>
-      <c r="BE10" s="105" t="s">
-        <v>23</v>
-      </c>
+      <c r="BE10" s="105"/>
       <c r="BF10" s="105"/>
       <c r="BG10" s="105"/>
       <c r="BH10" s="105"/>
@@ -9828,7 +9784,7 @@
       <c r="C11" s="88"/>
       <c r="D11" s="89"/>
       <c r="E11" s="97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="98"/>
       <c r="G11" s="98"/>
@@ -9921,7 +9877,7 @@
       <c r="C12" s="88"/>
       <c r="D12" s="89"/>
       <c r="E12" s="81" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
@@ -9948,7 +9904,7 @@
       <c r="Z12" s="91"/>
       <c r="AA12" s="92"/>
       <c r="AB12" s="81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC12" s="82"/>
       <c r="AD12" s="82"/>
@@ -9956,12 +9912,12 @@
       <c r="AF12" s="82"/>
       <c r="AG12" s="83"/>
       <c r="AH12" s="90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AI12" s="91"/>
       <c r="AJ12" s="92"/>
       <c r="AK12" s="81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL12" s="82"/>
       <c r="AM12" s="82"/>
@@ -9999,7 +9955,7 @@
       <c r="BO12" s="93"/>
       <c r="BP12" s="93"/>
       <c r="BQ12" s="94" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="BR12" s="94"/>
       <c r="BS12" s="94"/>
@@ -10027,48 +9983,48 @@
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="89"/>
-      <c r="E13" s="81" t="s">
-        <v>43</v>
+      <c r="E13" s="107" t="s">
+        <v>54</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="83"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="109"/>
       <c r="Y13" s="90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Z13" s="91"/>
       <c r="AA13" s="92"/>
-      <c r="AB13" s="81" t="s">
-        <v>34</v>
+      <c r="AB13" s="107" t="s">
+        <v>24</v>
       </c>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="90">
-        <v>20</v>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="90" t="s">
+        <v>23</v>
       </c>
       <c r="AI13" s="91"/>
       <c r="AJ13" s="92"/>
       <c r="AK13" s="81" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AL13" s="82"/>
       <c r="AM13" s="82"/>
@@ -10079,9 +10035,7 @@
       <c r="AR13" s="64"/>
       <c r="AS13" s="64"/>
       <c r="AT13" s="65"/>
-      <c r="AU13" s="81" t="s">
-        <v>13</v>
-      </c>
+      <c r="AU13" s="81"/>
       <c r="AV13" s="82"/>
       <c r="AW13" s="82"/>
       <c r="AX13" s="82"/>
@@ -10091,9 +10045,7 @@
       <c r="BB13" s="82"/>
       <c r="BC13" s="82"/>
       <c r="BD13" s="83"/>
-      <c r="BE13" s="93" t="s">
-        <v>26</v>
-      </c>
+      <c r="BE13" s="93"/>
       <c r="BF13" s="93"/>
       <c r="BG13" s="93"/>
       <c r="BH13" s="93"/>
@@ -10105,9 +10057,7 @@
       <c r="BN13" s="93"/>
       <c r="BO13" s="93"/>
       <c r="BP13" s="93"/>
-      <c r="BQ13" s="94" t="s">
-        <v>47</v>
-      </c>
+      <c r="BQ13" s="94"/>
       <c r="BR13" s="94"/>
       <c r="BS13" s="94"/>
       <c r="BT13" s="94"/>
@@ -10135,7 +10085,7 @@
       <c r="C14" s="88"/>
       <c r="D14" s="89"/>
       <c r="E14" s="81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
@@ -10157,12 +10107,12 @@
       <c r="W14" s="82"/>
       <c r="X14" s="83"/>
       <c r="Y14" s="90" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Z14" s="91"/>
       <c r="AA14" s="92"/>
       <c r="AB14" s="81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC14" s="82"/>
       <c r="AD14" s="82"/>
@@ -10170,12 +10120,12 @@
       <c r="AF14" s="82"/>
       <c r="AG14" s="83"/>
       <c r="AH14" s="90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI14" s="91"/>
       <c r="AJ14" s="92"/>
       <c r="AK14" s="81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AL14" s="82"/>
       <c r="AM14" s="82"/>
@@ -10187,7 +10137,7 @@
       <c r="AS14" s="64"/>
       <c r="AT14" s="65"/>
       <c r="AU14" s="81" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AV14" s="82"/>
       <c r="AW14" s="82"/>
@@ -10199,7 +10149,7 @@
       <c r="BC14" s="82"/>
       <c r="BD14" s="83"/>
       <c r="BE14" s="93" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="BF14" s="93"/>
       <c r="BG14" s="93"/>
@@ -10213,7 +10163,7 @@
       <c r="BO14" s="93"/>
       <c r="BP14" s="93"/>
       <c r="BQ14" s="94" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="BR14" s="94"/>
       <c r="BS14" s="94"/>
@@ -10242,7 +10192,7 @@
       <c r="C15" s="88"/>
       <c r="D15" s="89"/>
       <c r="E15" s="81" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
@@ -10264,12 +10214,12 @@
       <c r="W15" s="82"/>
       <c r="X15" s="83"/>
       <c r="Y15" s="90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="91"/>
       <c r="AA15" s="92"/>
       <c r="AB15" s="81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC15" s="82"/>
       <c r="AD15" s="82"/>
@@ -10282,7 +10232,7 @@
       <c r="AI15" s="91"/>
       <c r="AJ15" s="92"/>
       <c r="AK15" s="81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AL15" s="82"/>
       <c r="AM15" s="82"/>
@@ -10306,7 +10256,7 @@
       <c r="BC15" s="82"/>
       <c r="BD15" s="83"/>
       <c r="BE15" s="93" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="BF15" s="93"/>
       <c r="BG15" s="93"/>
@@ -10319,7 +10269,9 @@
       <c r="BN15" s="93"/>
       <c r="BO15" s="93"/>
       <c r="BP15" s="93"/>
-      <c r="BQ15" s="94"/>
+      <c r="BQ15" s="94" t="s">
+        <v>42</v>
+      </c>
       <c r="BR15" s="94"/>
       <c r="BS15" s="94"/>
       <c r="BT15" s="94"/>
@@ -10346,7 +10298,7 @@
       <c r="C16" s="88"/>
       <c r="D16" s="89"/>
       <c r="E16" s="81" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
@@ -10368,25 +10320,25 @@
       <c r="W16" s="82"/>
       <c r="X16" s="83"/>
       <c r="Y16" s="90" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Z16" s="91"/>
       <c r="AA16" s="92"/>
       <c r="AB16" s="81" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AC16" s="82"/>
       <c r="AD16" s="82"/>
       <c r="AE16" s="82"/>
       <c r="AF16" s="82"/>
       <c r="AG16" s="83"/>
-      <c r="AH16" s="90" t="s">
-        <v>26</v>
+      <c r="AH16" s="90">
+        <v>10</v>
       </c>
       <c r="AI16" s="91"/>
       <c r="AJ16" s="92"/>
       <c r="AK16" s="81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AL16" s="82"/>
       <c r="AM16" s="82"/>
@@ -10423,9 +10375,7 @@
       <c r="BN16" s="93"/>
       <c r="BO16" s="93"/>
       <c r="BP16" s="93"/>
-      <c r="BQ16" s="94" t="s">
-        <v>57</v>
-      </c>
+      <c r="BQ16" s="94"/>
       <c r="BR16" s="94"/>
       <c r="BS16" s="94"/>
       <c r="BT16" s="94"/>
@@ -10452,7 +10402,7 @@
       <c r="C17" s="88"/>
       <c r="D17" s="89"/>
       <c r="E17" s="81" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
@@ -10473,20 +10423,26 @@
       <c r="V17" s="82"/>
       <c r="W17" s="82"/>
       <c r="X17" s="83"/>
-      <c r="Y17" s="90"/>
+      <c r="Y17" s="90" t="s">
+        <v>26</v>
+      </c>
       <c r="Z17" s="91"/>
       <c r="AA17" s="92"/>
-      <c r="AB17" s="81"/>
+      <c r="AB17" s="81" t="s">
+        <v>41</v>
+      </c>
       <c r="AC17" s="82"/>
       <c r="AD17" s="82"/>
       <c r="AE17" s="82"/>
       <c r="AF17" s="82"/>
       <c r="AG17" s="83"/>
-      <c r="AH17" s="90"/>
+      <c r="AH17" s="90" t="s">
+        <v>26</v>
+      </c>
       <c r="AI17" s="91"/>
       <c r="AJ17" s="92"/>
       <c r="AK17" s="81" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL17" s="82"/>
       <c r="AM17" s="82"/>
@@ -10497,7 +10453,9 @@
       <c r="AR17" s="64"/>
       <c r="AS17" s="64"/>
       <c r="AT17" s="65"/>
-      <c r="AU17" s="81"/>
+      <c r="AU17" s="81" t="s">
+        <v>13</v>
+      </c>
       <c r="AV17" s="82"/>
       <c r="AW17" s="82"/>
       <c r="AX17" s="82"/>
@@ -10507,45 +10465,51 @@
       <c r="BB17" s="82"/>
       <c r="BC17" s="82"/>
       <c r="BD17" s="83"/>
-      <c r="BE17" s="81"/>
-      <c r="BF17" s="82"/>
-      <c r="BG17" s="82"/>
-      <c r="BH17" s="82"/>
-      <c r="BI17" s="82"/>
-      <c r="BJ17" s="82"/>
-      <c r="BK17" s="82"/>
-      <c r="BL17" s="82"/>
-      <c r="BM17" s="82"/>
-      <c r="BN17" s="82"/>
-      <c r="BO17" s="82"/>
-      <c r="BP17" s="83"/>
-      <c r="BQ17" s="84" t="s">
-        <v>58</v>
+      <c r="BE17" s="93" t="s">
+        <v>26</v>
       </c>
-      <c r="BR17" s="85"/>
-      <c r="BS17" s="85"/>
-      <c r="BT17" s="85"/>
-      <c r="BU17" s="85"/>
-      <c r="BV17" s="85"/>
-      <c r="BW17" s="85"/>
-      <c r="BX17" s="85"/>
-      <c r="BY17" s="85"/>
-      <c r="BZ17" s="85"/>
-      <c r="CA17" s="85"/>
-      <c r="CB17" s="85"/>
-      <c r="CC17" s="85"/>
-      <c r="CD17" s="85"/>
-      <c r="CE17" s="85"/>
-      <c r="CF17" s="85"/>
-      <c r="CG17" s="85"/>
-      <c r="CH17" s="85"/>
-      <c r="CI17" s="86"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="93"/>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="93"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="93"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="93"/>
+      <c r="BN17" s="93"/>
+      <c r="BO17" s="93"/>
+      <c r="BP17" s="93"/>
+      <c r="BQ17" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR17" s="94"/>
+      <c r="BS17" s="94"/>
+      <c r="BT17" s="94"/>
+      <c r="BU17" s="94"/>
+      <c r="BV17" s="94"/>
+      <c r="BW17" s="94"/>
+      <c r="BX17" s="94"/>
+      <c r="BY17" s="94"/>
+      <c r="BZ17" s="94"/>
+      <c r="CA17" s="94"/>
+      <c r="CB17" s="94"/>
+      <c r="CC17" s="94"/>
+      <c r="CD17" s="94"/>
+      <c r="CE17" s="94"/>
+      <c r="CF17" s="94"/>
+      <c r="CG17" s="94"/>
+      <c r="CH17" s="94"/>
+      <c r="CI17" s="94"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="87"/>
+      <c r="B18" s="87">
+        <v>11</v>
+      </c>
       <c r="C18" s="88"/>
       <c r="D18" s="89"/>
-      <c r="E18" s="81"/>
+      <c r="E18" s="81" t="s">
+        <v>51</v>
+      </c>
       <c r="F18" s="82"/>
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
@@ -10577,7 +10541,9 @@
       <c r="AH18" s="90"/>
       <c r="AI18" s="91"/>
       <c r="AJ18" s="92"/>
-      <c r="AK18" s="81"/>
+      <c r="AK18" s="81" t="s">
+        <v>34</v>
+      </c>
       <c r="AL18" s="82"/>
       <c r="AM18" s="82"/>
       <c r="AN18" s="82"/>
@@ -10609,7 +10575,9 @@
       <c r="BN18" s="82"/>
       <c r="BO18" s="82"/>
       <c r="BP18" s="83"/>
-      <c r="BQ18" s="84"/>
+      <c r="BQ18" s="84" t="s">
+        <v>53</v>
+      </c>
       <c r="BR18" s="85"/>
       <c r="BS18" s="85"/>
       <c r="BT18" s="85"/>
